--- a/data/일자리_최종.xlsx
+++ b/data/일자리_최종.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="207">
   <si>
     <t>화명도서관</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>부산광역시 부산진구 전포대로300번길 6 부산진구 노인 장애인복지관</t>
-  </si>
-  <si>
-    <t>부산광역시 해운대구 센텀중앙로 79 센텀사이언스파크 13층, 17층</t>
   </si>
   <si>
     <t>부산광역시 해운대구 세실로27번길 19 9층 901호 장산직업재활센터</t>
@@ -723,6 +720,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> (화명동)</t>
     </r>
@@ -1367,10 +1366,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1383,16 +1382,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1400,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>35.232230399999999</v>
@@ -1414,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3">
         <v>35.263237400000001</v>
@@ -1439,10 +1438,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>35.197150999999998</v>
@@ -1453,10 +1452,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6">
         <v>35.206470400000001</v>
@@ -1467,10 +1466,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>35.202683700000001</v>
@@ -1481,10 +1480,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8">
         <v>35.194933900000002</v>
@@ -1495,7 +1494,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -1509,10 +1508,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10">
         <v>35.212445099999997</v>
@@ -1523,10 +1522,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11">
         <v>35.212431000000002</v>
@@ -1537,7 +1536,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -1551,7 +1550,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -1565,10 +1564,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>35.210183399999998</v>
@@ -1579,7 +1578,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -1593,10 +1592,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16">
         <v>35.243585299999999</v>
@@ -1607,10 +1606,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C17">
         <v>35.231870299999997</v>
@@ -1624,7 +1623,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18">
         <v>35.260725999999998</v>
@@ -1666,7 +1665,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21">
         <v>35.2107654</v>
@@ -1694,7 +1693,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>35.195044799999998</v>
@@ -1708,7 +1707,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24">
         <v>35.234668999999997</v>
@@ -1722,7 +1721,7 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25">
         <v>35.2671207</v>
@@ -1736,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26">
         <v>35.215165900000002</v>
@@ -1761,10 +1760,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28">
         <v>35.225702099999999</v>
@@ -1778,7 +1777,7 @@
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29">
         <v>35.226807600000001</v>
@@ -1872,7 +1871,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B36" t="s">
@@ -1904,13 +1903,13 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C38">
-        <v>35.174111699999997</v>
+        <v>35.168703200000003</v>
       </c>
       <c r="D38">
-        <v>129.126137</v>
+        <v>129.1297466</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1918,13 +1917,13 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>35.168703200000003</v>
+        <v>35.178518199999999</v>
       </c>
       <c r="D39">
-        <v>129.1297466</v>
+        <v>129.1730968</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -1932,13 +1931,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40">
-        <v>35.178518199999999</v>
+        <v>35.179845100000001</v>
       </c>
       <c r="D40">
-        <v>129.1730968</v>
+        <v>129.12772480000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -1946,13 +1945,13 @@
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>35.179845100000001</v>
+        <v>35.161600100000001</v>
       </c>
       <c r="D41">
-        <v>129.12772480000001</v>
+        <v>129.1444673</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -1960,13 +1959,13 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C42">
-        <v>35.161600100000001</v>
+        <v>35.178417500000002</v>
       </c>
       <c r="D42">
-        <v>129.1444673</v>
+        <v>129.1251115</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -1974,13 +1973,13 @@
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="C43">
-        <v>35.178417500000002</v>
+        <v>35.176241599999997</v>
       </c>
       <c r="D43">
-        <v>129.1251115</v>
+        <v>129.12605020000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -1988,13 +1987,13 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C44">
-        <v>35.176241599999997</v>
+        <v>35.178518199999999</v>
       </c>
       <c r="D44">
-        <v>129.12605020000001</v>
+        <v>129.1730968</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -2002,13 +2001,13 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C45">
-        <v>35.178518199999999</v>
+        <v>35.168506499999999</v>
       </c>
       <c r="D45">
-        <v>129.1730968</v>
+        <v>129.17803090000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -2016,13 +2015,13 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C46">
-        <v>35.168506499999999</v>
+        <v>35.212604300000002</v>
       </c>
       <c r="D46">
-        <v>129.17803090000001</v>
+        <v>129.12805130000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -2030,13 +2029,13 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>35.212604300000002</v>
+        <v>35.176241599999997</v>
       </c>
       <c r="D47">
-        <v>129.12805130000001</v>
+        <v>129.12605020000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -2044,13 +2043,13 @@
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="C48">
-        <v>35.176241599999997</v>
+        <v>35.174030500000001</v>
       </c>
       <c r="D48">
-        <v>129.12605020000001</v>
+        <v>129.12925490000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2058,13 +2057,13 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C49">
-        <v>35.174030500000001</v>
+        <v>35.167693800000002</v>
       </c>
       <c r="D49">
-        <v>129.12925490000001</v>
+        <v>129.14631220000001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2072,13 +2071,13 @@
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>35.167693800000002</v>
+        <v>35.193529300000002</v>
       </c>
       <c r="D50">
-        <v>129.14631220000001</v>
+        <v>129.20634050000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2086,13 +2085,13 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C51">
-        <v>35.193529300000002</v>
+        <v>35.170584300000002</v>
       </c>
       <c r="D51">
-        <v>129.20634050000001</v>
+        <v>129.1770927</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2100,13 +2099,13 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C52">
-        <v>35.170584300000002</v>
+        <v>35.157134200000002</v>
       </c>
       <c r="D52">
-        <v>129.1770927</v>
+        <v>129.1427946</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2114,13 +2113,13 @@
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C53">
-        <v>35.157134200000002</v>
+        <v>35.185807400000002</v>
       </c>
       <c r="D53">
-        <v>129.1427946</v>
+        <v>129.1216378</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -2128,13 +2127,13 @@
         <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C54">
-        <v>35.185807400000002</v>
+        <v>35.173344100000001</v>
       </c>
       <c r="D54">
-        <v>129.1216378</v>
+        <v>129.1822042</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -2142,13 +2141,13 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C55">
-        <v>35.173344100000001</v>
+        <v>35.165931700000002</v>
       </c>
       <c r="D55">
-        <v>129.1822042</v>
+        <v>129.13242389999999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -2156,13 +2155,13 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="C56">
-        <v>35.165931700000002</v>
+        <v>35.159998600000002</v>
       </c>
       <c r="D56">
-        <v>129.13242389999999</v>
+        <v>129.15779019999999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -2170,13 +2169,13 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C57">
-        <v>35.159998600000002</v>
+        <v>35.189676300000002</v>
       </c>
       <c r="D57">
-        <v>129.15779019999999</v>
+        <v>129.1209212</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -2184,13 +2183,13 @@
         <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C58">
-        <v>35.189676300000002</v>
+        <v>35.223124499999997</v>
       </c>
       <c r="D58">
-        <v>129.1209212</v>
+        <v>129.11995440000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2198,13 +2197,13 @@
         <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59">
-        <v>35.223124499999997</v>
+        <v>35.173493200000003</v>
       </c>
       <c r="D59">
-        <v>129.11995440000001</v>
+        <v>129.18197889999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2212,13 +2211,13 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="C60">
-        <v>35.173493200000003</v>
+        <v>35.178826399999998</v>
       </c>
       <c r="D60">
-        <v>129.18197889999999</v>
+        <v>129.12487809999999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2226,13 +2225,13 @@
         <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C61">
-        <v>35.178826399999998</v>
+        <v>35.175111399999999</v>
       </c>
       <c r="D61">
-        <v>129.12487809999999</v>
+        <v>129.12487870000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2240,97 +2239,97 @@
         <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C62">
-        <v>35.175111399999999</v>
+        <v>35.221834899999998</v>
       </c>
       <c r="D62">
-        <v>129.12487870000001</v>
+        <v>129.1259924</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C63">
-        <v>35.221834899999998</v>
+        <v>35.152610699999997</v>
       </c>
       <c r="D63">
-        <v>129.1259924</v>
+        <v>128.9911898</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C64">
-        <v>35.152610699999997</v>
+        <v>35.178107500000003</v>
       </c>
       <c r="D64">
-        <v>128.9911898</v>
+        <v>128.9898274</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C65">
-        <v>35.178107500000003</v>
+        <v>35.190938199999998</v>
       </c>
       <c r="D65">
-        <v>128.9898274</v>
+        <v>128.98967440000001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>35.190938199999998</v>
+        <v>35.185291499999998</v>
       </c>
       <c r="D66">
-        <v>128.98967440000001</v>
+        <v>128.99247930000001</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="C67">
-        <v>35.185291499999998</v>
+        <v>35.1746792</v>
       </c>
       <c r="D67">
-        <v>128.99247930000001</v>
+        <v>128.9864408</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="C68">
-        <v>35.1746792</v>
+        <v>35.184893799999998</v>
       </c>
       <c r="D68">
-        <v>128.9864408</v>
+        <v>129.0009364</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -2338,209 +2337,209 @@
         <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C69">
-        <v>35.184893799999998</v>
+        <v>35.155083699999999</v>
       </c>
       <c r="D69">
-        <v>129.0009364</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+        <v>128.992637</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="5">
+        <v>35.185495799999998</v>
+      </c>
+      <c r="D70" s="5">
+        <v>129.00035099999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>134</v>
       </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70">
-        <v>35.155083699999999</v>
-      </c>
-      <c r="D70">
-        <v>128.992637</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" s="5">
-        <v>35.185495799999998</v>
-      </c>
-      <c r="D71" s="5">
-        <v>129.00035099999999</v>
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71">
+        <v>35.1382349</v>
+      </c>
+      <c r="D71">
+        <v>128.98997879999999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C72">
-        <v>35.1382349</v>
+        <v>35.1676097</v>
       </c>
       <c r="D72">
-        <v>128.98997879999999</v>
+        <v>128.98476700000001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C73">
-        <v>35.1676097</v>
+        <v>35.146324300000003</v>
       </c>
       <c r="D73">
-        <v>128.98476700000001</v>
+        <v>129.01328509999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C74">
-        <v>35.146324300000003</v>
+        <v>35.1644328</v>
       </c>
       <c r="D74">
-        <v>129.01328509999999</v>
+        <v>128.9879153</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="C75">
-        <v>35.1644328</v>
+        <v>35.160445299999999</v>
       </c>
       <c r="D75">
-        <v>128.9879153</v>
+        <v>128.98577610000001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C76">
-        <v>35.160445299999999</v>
+        <v>35.167457200000001</v>
       </c>
       <c r="D76">
-        <v>128.98577610000001</v>
+        <v>128.98019049999999</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C77">
-        <v>35.167457200000001</v>
+        <v>35.1459014</v>
       </c>
       <c r="D77">
-        <v>128.98019049999999</v>
+        <v>129.00158579999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C78">
-        <v>35.1459014</v>
+        <v>35.174232699999997</v>
       </c>
       <c r="D78">
-        <v>129.00158579999999</v>
+        <v>128.9833758</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C79">
-        <v>35.174232699999997</v>
+        <v>35.1333725</v>
       </c>
       <c r="D79">
-        <v>128.9833758</v>
+        <v>128.99649579999999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C80">
-        <v>35.1333725</v>
+        <v>35.182212</v>
       </c>
       <c r="D80">
-        <v>128.99649579999999</v>
+        <v>128.99252530000001</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C81">
-        <v>35.182212</v>
+        <v>35.170401400000003</v>
       </c>
       <c r="D81">
-        <v>128.99252530000001</v>
+        <v>129.05128540000001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>35.170401400000003</v>
+        <v>35.1690082</v>
       </c>
       <c r="D82">
-        <v>129.05128540000001</v>
+        <v>129.03965239999999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C83">
-        <v>35.1690082</v>
+        <v>35.1681223</v>
       </c>
       <c r="D83">
-        <v>129.03965239999999</v>
+        <v>129.0375094</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -2548,13 +2547,13 @@
         <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>35.1681223</v>
+        <v>35.164444799999998</v>
       </c>
       <c r="D84">
-        <v>129.0375094</v>
+        <v>129.03568390000001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -2562,41 +2561,41 @@
         <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C85">
-        <v>35.164444799999998</v>
+        <v>35.155747900000001</v>
       </c>
       <c r="D85">
-        <v>129.03568390000001</v>
+        <v>129.0220277</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C86">
-        <v>35.155747900000001</v>
+        <v>35.152677599999997</v>
       </c>
       <c r="D86">
-        <v>129.0220277</v>
+        <v>129.02194209999999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C87">
-        <v>35.152677599999997</v>
+        <v>35.144931800000002</v>
       </c>
       <c r="D87">
-        <v>129.02194209999999</v>
+        <v>129.019499</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -2604,27 +2603,27 @@
         <v>145</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C88">
-        <v>35.144931800000002</v>
+        <v>35.149205299999998</v>
       </c>
       <c r="D88">
-        <v>129.019499</v>
+        <v>129.0318461</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C89">
-        <v>35.149205299999998</v>
+        <v>35.153249700000003</v>
       </c>
       <c r="D89">
-        <v>129.0318461</v>
+        <v>129.03430180000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -2632,83 +2631,83 @@
         <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C90">
-        <v>35.153249700000003</v>
+        <v>35.157882299999997</v>
       </c>
       <c r="D90">
-        <v>129.03430180000001</v>
+        <v>129.04788809999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="C91">
-        <v>35.157882299999997</v>
+        <v>35.146363700000002</v>
       </c>
       <c r="D91">
-        <v>129.04788809999999</v>
+        <v>129.0562276</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="C92">
-        <v>35.146363700000002</v>
+        <v>35.1470494</v>
       </c>
       <c r="D92">
-        <v>129.0562276</v>
+        <v>129.0615626</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="C93">
-        <v>35.1470494</v>
+        <v>35.1526627</v>
       </c>
       <c r="D93">
-        <v>129.0615626</v>
+        <v>129.0568203</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C94">
-        <v>35.1526627</v>
+        <v>35.163590499999998</v>
       </c>
       <c r="D94">
-        <v>129.0568203</v>
+        <v>129.06262380000001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C95">
-        <v>35.163590499999998</v>
+        <v>35.154416400000002</v>
       </c>
       <c r="D95">
-        <v>129.06262380000001</v>
+        <v>129.0673979</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -2716,27 +2715,27 @@
         <v>156</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="C96">
-        <v>35.154416400000002</v>
+        <v>35.161512299999998</v>
       </c>
       <c r="D96">
-        <v>129.0673979</v>
+        <v>129.0636044</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="C97">
-        <v>35.161512299999998</v>
+        <v>35.172136799999997</v>
       </c>
       <c r="D97">
-        <v>129.0636044</v>
+        <v>129.0687365</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
@@ -2744,223 +2743,223 @@
         <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C98">
-        <v>35.172136799999997</v>
+        <v>35.172832999999997</v>
       </c>
       <c r="D98">
-        <v>129.0687365</v>
+        <v>129.07567</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="C99">
-        <v>35.172832999999997</v>
+        <v>35.172775199999997</v>
       </c>
       <c r="D99">
-        <v>129.07567</v>
+        <v>129.0528545</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C100">
-        <v>35.172775199999997</v>
+        <v>35.163273199999999</v>
       </c>
       <c r="D100">
-        <v>129.0528545</v>
+        <v>129.0484424</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="C101">
-        <v>35.163273199999999</v>
+        <v>35.164048200000003</v>
       </c>
       <c r="D101">
-        <v>129.0484424</v>
+        <v>129.0658195</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C102">
-        <v>35.164048200000003</v>
+        <v>35.159309800000003</v>
       </c>
       <c r="D102">
-        <v>129.0658195</v>
+        <v>129.0644724</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="C103">
-        <v>35.159309800000003</v>
+        <v>35.158375700000001</v>
       </c>
       <c r="D103">
-        <v>129.0644724</v>
+        <v>129.0430728</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C104">
-        <v>35.158375700000001</v>
+        <v>35.146214999999998</v>
       </c>
       <c r="D104">
-        <v>129.0430728</v>
+        <v>129.058851</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C105">
-        <v>35.146214999999998</v>
+        <v>35.183277500000003</v>
       </c>
       <c r="D105">
-        <v>129.058851</v>
+        <v>129.0500255</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C106">
-        <v>35.183277500000003</v>
+        <v>35.152377199999997</v>
       </c>
       <c r="D106">
-        <v>129.0500255</v>
+        <v>129.02165299999999</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C107">
-        <v>35.152377199999997</v>
+        <v>35.146214999999998</v>
       </c>
       <c r="D107">
-        <v>129.02165299999999</v>
+        <v>129.058851</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C108">
-        <v>35.146214999999998</v>
+        <v>35.165727699999998</v>
       </c>
       <c r="D108">
-        <v>129.058851</v>
+        <v>129.03776930000001</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C109">
-        <v>35.165727699999998</v>
+        <v>35.159524500000003</v>
       </c>
       <c r="D109">
-        <v>129.03776930000001</v>
+        <v>129.05569879999999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B110" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C110">
-        <v>35.159524500000003</v>
+        <v>35.156362299999998</v>
       </c>
       <c r="D110">
-        <v>129.05569879999999</v>
+        <v>129.06035220000001</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C111">
-        <v>35.156362299999998</v>
+        <v>35.164048200000003</v>
       </c>
       <c r="D111">
-        <v>129.06035220000001</v>
+        <v>129.0658195</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C112">
-        <v>35.164048200000003</v>
+        <v>35.1777218</v>
       </c>
       <c r="D112">
-        <v>129.0658195</v>
+        <v>129.07220409999999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>165</v>
-      </c>
-      <c r="B113" t="s">
-        <v>171</v>
-      </c>
-      <c r="C113">
-        <v>35.1777218</v>
-      </c>
-      <c r="D113">
-        <v>129.07220409999999</v>
+        <v>187</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" s="2">
+        <v>35.103781400000003</v>
+      </c>
+      <c r="D113" s="2">
+        <v>128.96150800000001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
@@ -2971,10 +2970,10 @@
         <v>194</v>
       </c>
       <c r="C114" s="2">
-        <v>35.103781400000003</v>
+        <v>35.070120600000003</v>
       </c>
       <c r="D114" s="2">
-        <v>128.96150800000001</v>
+        <v>128.97050200000001</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -2984,25 +2983,25 @@
       <c r="B115" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C115" s="2">
-        <v>35.070120600000003</v>
+      <c r="C115" s="3">
+        <v>35.062886300000002</v>
       </c>
       <c r="D115" s="2">
-        <v>128.97050200000001</v>
+        <v>128.97922800000001</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C116" s="3">
-        <v>35.062886300000002</v>
+        <v>35.099696199999997</v>
       </c>
       <c r="D116" s="2">
-        <v>128.97922800000001</v>
+        <v>128.99263999999999</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
@@ -3013,10 +3012,10 @@
         <v>197</v>
       </c>
       <c r="C117" s="3">
-        <v>35.099696199999997</v>
+        <v>35.107961500000002</v>
       </c>
       <c r="D117" s="2">
-        <v>128.99263999999999</v>
+        <v>128.96548999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -3027,38 +3026,38 @@
         <v>198</v>
       </c>
       <c r="C118" s="3">
-        <v>35.107961500000002</v>
+        <v>35.077401299999998</v>
       </c>
       <c r="D118" s="2">
-        <v>128.96548999999999</v>
+        <v>128.978307</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C119" s="3">
-        <v>35.077401299999998</v>
+        <v>35.108539800000003</v>
       </c>
       <c r="D119" s="2">
-        <v>128.978307</v>
+        <v>128.94807800000001</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C120" s="3">
-        <v>35.108539800000003</v>
+        <v>191</v>
+      </c>
+      <c r="C120" s="2">
+        <v>35.106594899999997</v>
       </c>
       <c r="D120" s="2">
-        <v>128.94807800000001</v>
+        <v>128.965293</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
@@ -3066,40 +3065,26 @@
         <v>189</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C121" s="2">
-        <v>35.106594899999997</v>
+        <v>200</v>
+      </c>
+      <c r="C121" s="3">
+        <v>35.112605600000002</v>
       </c>
       <c r="D121" s="2">
-        <v>128.965293</v>
+        <v>128.96474599999999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C122" s="3">
-        <v>35.112605600000002</v>
+        <v>35.085874099999998</v>
       </c>
       <c r="D122" s="2">
-        <v>128.96474599999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>193</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C123" s="3">
-        <v>35.085874099999998</v>
-      </c>
-      <c r="D123" s="2">
         <v>128.974334</v>
       </c>
     </row>
